--- a/1.基本設計書/3.画面レイアウト/1-3-4_レイアウト_顧客情報更新画面.xlsx
+++ b/1.基本設計書/3.画面レイアウト/1-3-4_レイアウト_顧客情報更新画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\1.基本設計書\3.画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24C518F-9074-46C0-BEB1-B4BE696B653E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C145A5F-208D-4A44-A746-B6BC6FFA4BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10845" yWindow="375" windowWidth="17880" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6315" yWindow="0" windowWidth="17880" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -454,33 +454,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -515,6 +488,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -636,151 +636,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>139878</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>206875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>112922</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>204001</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D77CDD3B-BCD8-4312-8512-EDCD88861CB2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3083103" y="1254625"/>
-          <a:ext cx="1878044" cy="206676"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>155718</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>59683</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>12335</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E593ACB5-FD3E-49F3-9189-24631AEA0557}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2609850" y="1203468"/>
-          <a:ext cx="583558" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Pass : </a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>140307</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -868,91 +723,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CB91386-89F4-4C57-84D3-F4449A1BFFCA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5210175" y="1257300"/>
-          <a:ext cx="571500" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>表示</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -967,7 +747,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="914400" y="1704974"/>
+          <a:off x="942975" y="1543049"/>
           <a:ext cx="6505575" cy="3467101"/>
           <a:chOff x="914400" y="1704974"/>
           <a:chExt cx="6505575" cy="3467101"/>
@@ -3486,15 +3266,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3509,7 +3289,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="914401" y="5467350"/>
+          <a:off x="942976" y="5305425"/>
           <a:ext cx="1057274" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3563,15 +3343,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>189302</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>11395</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>27377</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>59020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3586,7 +3366,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="819150" y="5200650"/>
+          <a:off x="847725" y="5038725"/>
           <a:ext cx="1551377" cy="259045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3638,16 +3418,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3662,7 +3442,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6353175" y="5457825"/>
+          <a:off x="6381750" y="5295900"/>
           <a:ext cx="1057274" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4082,7 +3862,7 @@
   <dimension ref="A1:AE34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:AA15"/>
+      <selection activeCell="AD21" sqref="AD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4392,28 +4172,28 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="28"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="40"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
@@ -4427,26 +4207,26 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="31"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="43"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
@@ -4460,26 +4240,26 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="31"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="43"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
@@ -4493,28 +4273,28 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="31"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="43"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
@@ -4528,26 +4308,26 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="31"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="43"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
@@ -4561,26 +4341,26 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="34"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="46"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
@@ -4826,28 +4606,28 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="35" t="s">
+      <c r="I23" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="35" t="s">
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="37"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="28"/>
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
@@ -4863,24 +4643,24 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="39"/>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="40"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="31"/>
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
@@ -4896,28 +4676,28 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="35" t="s">
+      <c r="I25" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="35" t="s">
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="37"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="28"/>
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
@@ -4933,24 +4713,24 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="39"/>
-      <c r="Z26" s="40"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="31"/>
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
@@ -4966,28 +4746,28 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="35" t="s">
+      <c r="I27" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="35" t="s">
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="36"/>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="37"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="28"/>
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
@@ -5003,24 +4783,24 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="39"/>
-      <c r="W28" s="39"/>
-      <c r="X28" s="39"/>
-      <c r="Y28" s="39"/>
-      <c r="Z28" s="40"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="31"/>
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
@@ -5036,28 +4816,28 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="35" t="s">
+      <c r="I29" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="41">
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="32">
         <v>44526</v>
       </c>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="42"/>
-      <c r="X29" s="42"/>
-      <c r="Y29" s="42"/>
-      <c r="Z29" s="43"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="33"/>
+      <c r="Z29" s="34"/>
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
@@ -5073,24 +4853,24 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="45"/>
-      <c r="Z30" s="46"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="36"/>
+      <c r="Z30" s="37"/>
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
@@ -5106,28 +4886,28 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="35" t="s">
+      <c r="I31" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="35" t="s">
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="37"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="28"/>
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
@@ -5143,24 +4923,24 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="39"/>
-      <c r="W32" s="39"/>
-      <c r="X32" s="39"/>
-      <c r="Y32" s="39"/>
-      <c r="Z32" s="40"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="31"/>
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
@@ -5176,28 +4956,28 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="35" t="s">
+      <c r="I33" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="41">
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="32">
         <v>44505</v>
       </c>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="42"/>
-      <c r="T33" s="42"/>
-      <c r="U33" s="42"/>
-      <c r="V33" s="42"/>
-      <c r="W33" s="42"/>
-      <c r="X33" s="42"/>
-      <c r="Y33" s="42"/>
-      <c r="Z33" s="43"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="33"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="33"/>
+      <c r="Z33" s="34"/>
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
@@ -5213,24 +4993,24 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="45"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="45"/>
-      <c r="U34" s="45"/>
-      <c r="V34" s="45"/>
-      <c r="W34" s="45"/>
-      <c r="X34" s="45"/>
-      <c r="Y34" s="45"/>
-      <c r="Z34" s="46"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="37"/>
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
@@ -5239,6 +5019,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H10:AA12"/>
+    <mergeCell ref="H13:AA15"/>
+    <mergeCell ref="I23:N24"/>
+    <mergeCell ref="O23:Z24"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="O25:Z26"/>
     <mergeCell ref="I33:N34"/>
     <mergeCell ref="O33:Z34"/>
     <mergeCell ref="I27:N28"/>
@@ -5247,12 +5033,6 @@
     <mergeCell ref="O29:Z30"/>
     <mergeCell ref="I31:N32"/>
     <mergeCell ref="O31:Z32"/>
-    <mergeCell ref="H10:AA12"/>
-    <mergeCell ref="H13:AA15"/>
-    <mergeCell ref="I23:N24"/>
-    <mergeCell ref="O23:Z24"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="O25:Z26"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5268,7 +5048,7 @@
   <dimension ref="A1:AX37"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC31" sqref="AC31"/>
+      <selection activeCell="AG29" sqref="AG29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6855,6 +6635,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AN1"/>
     <mergeCell ref="AS1:AX1"/>
     <mergeCell ref="L2:R2"/>
     <mergeCell ref="S2:AD2"/>
@@ -6863,11 +6648,6 @@
     <mergeCell ref="AO2:AR2"/>
     <mergeCell ref="AS2:AX2"/>
     <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AN1"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.基本設計書/3.画面レイアウト/1-3-4_レイアウト_顧客情報更新画面.xlsx
+++ b/1.基本設計書/3.画面レイアウト/1-3-4_レイアウト_顧客情報更新画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\1.基本設計書\3.画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C145A5F-208D-4A44-A746-B6BC6FFA4BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52EF8B3-1C98-42C5-AED9-49B47C8C3661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6315" yWindow="0" windowWidth="17880" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="0" windowWidth="19530" windowHeight="15420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -454,6 +454,33 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -490,33 +517,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -526,10 +534,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="56" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -542,11 +547,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3552,7 +3552,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>会員情報更新を更新できます。</a:t>
+            <a:t>会員情報を更新できます。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3861,7 +3861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019A13F1-7088-4DDC-B626-5F11C1BD6288}">
   <dimension ref="A1:AE34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AD21" sqref="AD21"/>
     </sheetView>
   </sheetViews>
@@ -4172,28 +4172,28 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="40"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="28"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
@@ -4207,26 +4207,26 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="43"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="31"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
@@ -4240,26 +4240,26 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="43"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="31"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
@@ -4273,28 +4273,28 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="41" t="s">
+      <c r="H13" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="43"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="31"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
@@ -4308,26 +4308,26 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="43"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="31"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
@@ -4341,26 +4341,26 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="46"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="34"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
@@ -4606,28 +4606,28 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="26" t="s">
+      <c r="I23" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="26" t="s">
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="28"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="37"/>
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
@@ -4643,24 +4643,24 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="31"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="40"/>
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
@@ -4676,28 +4676,28 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="26" t="s">
+      <c r="I25" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="26" t="s">
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="28"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="37"/>
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
@@ -4713,24 +4713,24 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="31"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="40"/>
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
@@ -4746,28 +4746,28 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="26" t="s">
+      <c r="I27" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="26" t="s">
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="28"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="37"/>
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
@@ -4783,24 +4783,24 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="31"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="40"/>
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
@@ -4816,28 +4816,28 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="26" t="s">
+      <c r="I29" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="32">
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="41">
         <v>44526</v>
       </c>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="34"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="42"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="43"/>
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
@@ -4853,24 +4853,24 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="36"/>
-      <c r="Z30" s="37"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="45"/>
+      <c r="W30" s="45"/>
+      <c r="X30" s="45"/>
+      <c r="Y30" s="45"/>
+      <c r="Z30" s="46"/>
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
@@ -4886,28 +4886,28 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="26" t="s">
+      <c r="I31" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="26" t="s">
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="28"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="37"/>
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
@@ -4923,24 +4923,24 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="30"/>
-      <c r="Z32" s="31"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="40"/>
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
@@ -4956,28 +4956,28 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="26" t="s">
+      <c r="I33" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="32">
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="41">
         <v>44505</v>
       </c>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="33"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="33"/>
-      <c r="Z33" s="34"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="42"/>
+      <c r="T33" s="42"/>
+      <c r="U33" s="42"/>
+      <c r="V33" s="42"/>
+      <c r="W33" s="42"/>
+      <c r="X33" s="42"/>
+      <c r="Y33" s="42"/>
+      <c r="Z33" s="43"/>
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
@@ -4993,24 +4993,24 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="37"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="45"/>
+      <c r="W34" s="45"/>
+      <c r="X34" s="45"/>
+      <c r="Y34" s="45"/>
+      <c r="Z34" s="46"/>
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
@@ -5019,12 +5019,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H10:AA12"/>
-    <mergeCell ref="H13:AA15"/>
-    <mergeCell ref="I23:N24"/>
-    <mergeCell ref="O23:Z24"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="O25:Z26"/>
     <mergeCell ref="I33:N34"/>
     <mergeCell ref="O33:Z34"/>
     <mergeCell ref="I27:N28"/>
@@ -5033,6 +5027,12 @@
     <mergeCell ref="O29:Z30"/>
     <mergeCell ref="I31:N32"/>
     <mergeCell ref="O31:Z32"/>
+    <mergeCell ref="H10:AA12"/>
+    <mergeCell ref="H13:AA15"/>
+    <mergeCell ref="I23:N24"/>
+    <mergeCell ref="O23:Z24"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="O25:Z26"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5047,8 +5047,8 @@
   </sheetPr>
   <dimension ref="A1:AX37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AG29" sqref="AG29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AR12" sqref="AR12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5064,133 +5064,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="50" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="62" t="str">
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="52" t="str">
         <f>表紙!O25</f>
         <v>顧客情報更新</v>
       </c>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="52" t="s">
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="47" t="s">
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="55" t="s">
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="AP1" s="56"/>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="47" t="s">
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AT1" s="48"/>
-      <c r="AU1" s="48"/>
-      <c r="AV1" s="48"/>
-      <c r="AW1" s="48"/>
-      <c r="AX1" s="49"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56"/>
+      <c r="AX1" s="57"/>
     </row>
     <row r="2" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="50" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="52" t="s">
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="54">
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="59">
         <v>44505</v>
       </c>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="55" t="s">
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="54">
+      <c r="AP2" s="61"/>
+      <c r="AQ2" s="61"/>
+      <c r="AR2" s="62"/>
+      <c r="AS2" s="59">
         <v>44526</v>
       </c>
-      <c r="AT2" s="48"/>
-      <c r="AU2" s="48"/>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="48"/>
-      <c r="AX2" s="49"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="57"/>
     </row>
     <row r="4" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="5"/>
@@ -6635,11 +6635,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AN1"/>
     <mergeCell ref="AS1:AX1"/>
     <mergeCell ref="L2:R2"/>
     <mergeCell ref="S2:AD2"/>
@@ -6648,6 +6643,11 @@
     <mergeCell ref="AO2:AR2"/>
     <mergeCell ref="AS2:AX2"/>
     <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AN1"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
